--- a/nuclear and radiation physics/8. photo-multiplier tube/data.xlsx
+++ b/nuclear and radiation physics/8. photo-multiplier tube/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\all notes\labs\nuclear and radiation physics\8. photo-multiplier tube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC2C51-26D9-4CAD-A496-847992FEEC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB26CE2-50D3-4A25-B30E-623A32B6BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{01EA9E5C-69ED-4F86-AACC-A57B7B7E9B25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{01EA9E5C-69ED-4F86-AACC-A57B7B7E9B25}"/>
   </bookViews>
   <sheets>
     <sheet name="spec" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
